--- a/Test/BO/MSE_50.xlsx
+++ b/Test/BO/MSE_50.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1077361028679709</v>
+        <v>0.03580010215853958</v>
       </c>
       <c r="B1" t="n">
-        <v>0.05749909682868035</v>
+        <v>0.05813851029573077</v>
       </c>
       <c r="C1" t="n">
-        <v>0.03187892142610524</v>
+        <v>0.01924047634657448</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1148141137338882</v>
+        <v>0.0558756354340695</v>
       </c>
       <c r="E1" t="n">
-        <v>0.04469248021542582</v>
+        <v>0.04988644620467406</v>
       </c>
       <c r="F1" t="n">
-        <v>0.1446156861425392</v>
+        <v>0.1162612033047608</v>
       </c>
       <c r="G1" t="n">
-        <v>0.07668225055823602</v>
+        <v>0.02678911478379558</v>
       </c>
       <c r="H1" t="n">
-        <v>0.1218326519047125</v>
+        <v>0.04004430200074051</v>
       </c>
       <c r="I1" t="n">
-        <v>0.1286088075843311</v>
+        <v>0.1121929371292661</v>
       </c>
       <c r="J1" t="n">
-        <v>0.1253790147653132</v>
+        <v>0.04940393264873565</v>
       </c>
     </row>
   </sheetData>
